--- a/MindPlace.xlsx
+++ b/MindPlace.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Задачи после релиза</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Теория</t>
+  </si>
+  <si>
+    <t>//Анимации на LearnFragments и Activities</t>
   </si>
 </sst>
 </file>
@@ -231,23 +234,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -271,21 +258,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -563,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -586,7 +558,7 @@
       </c>
       <c r="C1" s="2">
         <f>COUNTA(B$2:B$1048576)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,6 +687,14 @@
       </c>
       <c r="B17" s="4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -722,13 +702,13 @@
     <sortCondition ref="A2:A17"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Улучшение">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Улучшение">
       <formula>NOT(ISERROR(SEARCH("Улучшение",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Тестирование">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Тестирование">
       <formula>NOT(ISERROR(SEARCH("Тестирование",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="CodeReview">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="CodeReview">
       <formula>NOT(ISERROR(SEARCH("CodeReview",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MindPlace.xlsx
+++ b/MindPlace.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Задачи после релиза</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>//Анимации на LearnFragments и Activities</t>
+  </si>
+  <si>
+    <t>Добавить больше теоретических материалов (Как создавать ассоциации)</t>
   </si>
 </sst>
 </file>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -558,7 +561,7 @@
       </c>
       <c r="C1" s="2">
         <f>COUNTA(B$2:B$1048576)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,6 +698,14 @@
       </c>
       <c r="B18" s="4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
